--- a/E-R図.xlsx
+++ b/E-R図.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tashi\source\repos\matching_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8A3AD-C7EE-4AFE-AE55-16334136554A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C3B1CB-9D07-4FE7-AE7D-E95CF9003BC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3924" yWindow="1128" windowWidth="11148" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="E-R図" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ユーザーマスタ</t>
     <phoneticPr fontId="1"/>
@@ -37,6 +37,49 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>オウボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス管理</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法人番号管理</t>
+    <rPh sb="0" eb="6">
+      <t>ホウジンバンゴウカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID採番テーブル</t>
+    <rPh sb="2" eb="4">
+      <t>サイバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -81,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -104,15 +148,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -128,8 +172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="845820" y="1828800"/>
-          <a:ext cx="1409700" cy="1828800"/>
+          <a:off x="2537460" y="685800"/>
+          <a:ext cx="1409700" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -186,22 +230,6 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・メールアドレス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
             <a:t>・電話番号</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -280,15 +308,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -304,7 +332,272 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="845820" y="1600200"/>
+          <a:off x="2537460" y="457200"/>
+          <a:ext cx="1409700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D8A8B0-52A7-4685-A75B-B0B7DEFE5453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="3657600"/>
+          <a:ext cx="1409700" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・企業</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID(FK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・大カテゴリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・小カテゴリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・タイトル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・内容</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・募集期限</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・削除可能フラグ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC86C9CD-791C-4CEE-AAD2-43430F7C21AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3101340" y="4114800"/>
           <a:ext cx="1409700" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -349,7 +642,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ユーザー</a:t>
+            <a:t>・求人情報</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -371,23 +664,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D8A8B0-52A7-4685-A75B-B0B7DEFE5453}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80AC4595-63CC-4959-9BF8-839D31BBBD4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -395,8 +688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3665220" y="1828800"/>
-          <a:ext cx="1409700" cy="1828800"/>
+          <a:off x="2537460" y="5029200"/>
+          <a:ext cx="1409700" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -437,26 +730,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・ユーザー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID(FK)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・大カテゴリ</a:t>
+            <a:t>・企業名</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -472,7 +746,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・小カテゴリ</a:t>
+            <a:t>・メールアドレス</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -488,7 +762,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・タイトル</a:t>
+            <a:t>・電話番号</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -504,7 +778,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・内容</a:t>
+            <a:t>・住所</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -520,7 +794,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・募集期限</a:t>
+            <a:t>・経歴</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -536,7 +810,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・削除可能フラグ</a:t>
+            <a:t>・企業情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・有効フラグ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -550,23 +840,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC86C9CD-791C-4CEE-AAD2-43430F7C21AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A414C9C-3D36-434B-83B0-5A003457931B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -574,7 +864,531 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3665220" y="1600200"/>
+          <a:off x="2537460" y="4808220"/>
+          <a:ext cx="1409700" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・企業</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4FE60F-1750-44FE-9E24-468EC4A4049A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5836024" y="8390965"/>
+          <a:ext cx="833717" cy="466164"/>
+          <a:chOff x="1973580" y="3886200"/>
+          <a:chExt cx="1409700" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="直線コネクタ 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6A4C52-13A3-46B4-855B-8869CD3EE2A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1973580" y="4114800"/>
+            <a:ext cx="1127760" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="直線コネクタ 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65809025-AB2A-4559-952A-2BFDAC2F844E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3101340" y="3886200"/>
+            <a:ext cx="281940" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="直線コネクタ 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A31B04F-A30A-426F-BD8F-522F090A0B84}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3101340" y="4114800"/>
+            <a:ext cx="281940" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="直線コネクタ 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE74D8B-2F30-4FF9-B26C-32DB6196E2F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3101340" y="4114800"/>
+            <a:ext cx="281940" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="楕円 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CE8FEB-7235-4267-999D-FF87B8431D93}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3002279" y="4053839"/>
+            <a:ext cx="144781" cy="129539"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="直線コネクタ 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88161687-75C1-4CD9-95A0-FEEEE3DA1F3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2255520" y="3886200"/>
+            <a:ext cx="0" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFCD147-3626-407C-8CF5-062A0BF338DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4792980" y="685800"/>
+          <a:ext cx="1409700" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID(FK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・求人情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID(FK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・承認フラグ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・お気に入り</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　フラグ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9ADE7A-B62D-4EE1-AA3E-14E0CF573241}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3101340" y="457200"/>
           <a:ext cx="1409700" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -619,7 +1433,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>求人情報</a:t>
+            <a:t>・応募</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -641,262 +1455,618 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83D8D84-9D2D-4D85-8BC4-B1CE7D91DB0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACF108D-AE65-46A3-9725-0E8A859A4EE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2255520" y="2286000"/>
-          <a:ext cx="1127760" cy="0"/>
+          <a:off x="5836024" y="3263153"/>
+          <a:ext cx="833717" cy="466165"/>
+          <a:chOff x="1973580" y="3886200"/>
+          <a:chExt cx="1409700" cy="457200"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="34" name="直線コネクタ 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11EF908-08FF-451E-8624-7067BB4FA89A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1973580" y="4114800"/>
+            <a:ext cx="1127760" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="35" name="直線コネクタ 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9A29E2-1C92-420D-B93F-35986C0C0354}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3101340" y="3886200"/>
+            <a:ext cx="281940" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="直線コネクタ 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB420282-E6E0-4852-9270-BDC25552852A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3101340" y="4114800"/>
+            <a:ext cx="281940" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="37" name="直線コネクタ 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B467A60A-06B0-46DF-B896-3F7D8CCD2C22}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3101340" y="4114800"/>
+            <a:ext cx="281940" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="楕円 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC12ACF9-2FD4-47BD-990A-45308923E114}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3002279" y="4053839"/>
+            <a:ext cx="144781" cy="129539"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="39" name="直線コネクタ 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809C1F59-F164-4D86-B242-ED565C5870E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2255520" y="3886200"/>
+            <a:ext cx="0" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線コネクタ 16">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="グループ化 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE065123-AC80-42B5-ADD3-32F4574C3AE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24931113-D765-487E-89E9-8B9936E1C368}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3383280" y="2057400"/>
-          <a:ext cx="281940" cy="228600"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6454589" y="5898777"/>
+          <a:ext cx="2097740" cy="555812"/>
+          <a:chOff x="1973580" y="3886200"/>
+          <a:chExt cx="1409700" cy="457200"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="直線コネクタ 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F4A487-EDC1-4FF2-B88C-27F72379E6BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1973580" y="4114800"/>
+            <a:ext cx="1127760" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="49" name="直線コネクタ 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B87E93-4690-4334-B240-9CDC3D0B8137}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3101340" y="3886200"/>
+            <a:ext cx="281940" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="直線コネクタ 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DFCC2C-6A21-431F-A3F5-AF0D754D0CF6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3101340" y="4114800"/>
+            <a:ext cx="281940" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="51" name="直線コネクタ 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DD04B3-CB3B-49EE-92EB-4AAD368CDF18}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3101340" y="4114800"/>
+            <a:ext cx="281940" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="楕円 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9975AF-95DD-4B4E-8C5A-470CDC28FB65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3002279" y="4053839"/>
+            <a:ext cx="144781" cy="129539"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="直線コネクタ 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B521E7C-ED14-4C55-BA8F-FEE0D96DFA22}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2255520" y="3886200"/>
+            <a:ext cx="0" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA4F902-A9DB-4E3A-B3BF-A1D4B64F276B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3383280" y="2286000"/>
-          <a:ext cx="281940" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CDC6B8-3913-4BF0-8C08-43CD9006A057}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3383280" y="2286000"/>
-          <a:ext cx="281940" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>182879</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>167639</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>68578</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="楕円 25">
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDD9497-1575-4479-9F83-39B4AC34584B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80F4CFF-5996-47D5-A705-D24E0220F9BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3284219" y="2225039"/>
-          <a:ext cx="144781" cy="129539"/>
+        <a:xfrm>
+          <a:off x="7048500" y="1371600"/>
+          <a:ext cx="1409700" cy="1600200"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -921,7 +2091,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・メッセージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -929,57 +2111,1695 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490EB3E5-DC7E-461D-BA07-E227F95F74CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7B5D18-0820-4832-A8CA-CAB46730BD94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2537460" y="2057400"/>
-          <a:ext cx="0" cy="457200"/>
+        <a:xfrm>
+          <a:off x="5356860" y="457200"/>
+          <a:ext cx="1409700" cy="914400"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・応募</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID(FK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・送信日時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・送信者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="グループ化 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5575BB-8B83-4E9A-88FA-9FA97BA88EE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8337176" y="3263153"/>
+          <a:ext cx="833718" cy="466165"/>
+          <a:chOff x="1973580" y="3886200"/>
+          <a:chExt cx="1409700" cy="457200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="64" name="直線コネクタ 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242EFD2F-EFDC-445A-9DA2-8F86EAEB51F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1973580" y="4114800"/>
+            <a:ext cx="1127760" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="65" name="直線コネクタ 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBEC6A1-23CE-45F4-994F-A35FC6539237}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3101340" y="3886200"/>
+            <a:ext cx="281940" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="66" name="直線コネクタ 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9F5E04-5EA6-45D2-B07E-8678C667485D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3101340" y="4114800"/>
+            <a:ext cx="281940" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="67" name="直線コネクタ 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F4B37B-964F-415C-A358-BBD7AC301806}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3101340" y="4114800"/>
+            <a:ext cx="281940" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="楕円 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717F7C70-008A-42A6-B9A1-6DAED12A51E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3002279" y="4053839"/>
+            <a:ext cx="144781" cy="129539"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="69" name="直線コネクタ 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6515340F-E02C-41A4-B486-A1257E173CFF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2255520" y="3886200"/>
+            <a:ext cx="0" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36941E8-3F2E-4585-A6EB-2544A44E4DE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833718" y="699247"/>
+          <a:ext cx="1389529" cy="2330824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50C4C47-5046-4C7C-8223-3559EF9FEB65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845820" y="457200"/>
+          <a:ext cx="1409700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・メールアドレス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C6DE35-725C-40DE-BD78-A57BCC7AECE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833718" y="5127812"/>
+          <a:ext cx="1389529" cy="2097741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・企業</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A61A136-ADFC-4112-9515-C00F182FCA35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845820" y="4800600"/>
+          <a:ext cx="1409700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・法人番号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>233082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="グループ化 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E39606A-1876-4230-9B76-64F992B6F227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2501153" y="3255533"/>
+          <a:ext cx="1667435" cy="473785"/>
+          <a:chOff x="2682240" y="685800"/>
+          <a:chExt cx="1127760" cy="466165"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="94" name="直線コネクタ 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA58D1A-7940-4C1C-87E3-6A75228BCF0D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2682240" y="914400"/>
+            <a:ext cx="1127760" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="95" name="直線コネクタ 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC246956-547F-40B2-868F-E97267918104}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2870201" y="685800"/>
+            <a:ext cx="0" cy="466165"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="96" name="直線コネクタ 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08768E90-4F4A-4FE6-A7D9-3E9525E99CB5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3626218" y="685800"/>
+            <a:ext cx="0" cy="466165"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="97" name="グループ化 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3F87F6-97C2-4098-8CE5-E54DB22AEA55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2501153" y="8390965"/>
+          <a:ext cx="1667435" cy="466164"/>
+          <a:chOff x="2682240" y="685800"/>
+          <a:chExt cx="1127760" cy="466165"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="98" name="直線コネクタ 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE633870-139E-431A-9CD1-00AC8D3EE360}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2682240" y="914400"/>
+            <a:ext cx="1127760" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="99" name="直線コネクタ 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B93291-AF10-4167-A774-3B3DA01C5A17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2870201" y="685800"/>
+            <a:ext cx="0" cy="466165"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="100" name="直線コネクタ 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42943C2A-2A10-4E6B-BC01-901983804D53}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3626218" y="685800"/>
+            <a:ext cx="0" cy="466165"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7419D444-3BD0-4BB7-9EA4-81ADDA43CA84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3890682" y="3970021"/>
+          <a:ext cx="1389530" cy="699247"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ハッシュ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　パスワード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="正方形/長方形 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFF7AEE-B958-4DE1-B752-5078B830E351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3890683" y="3729318"/>
+          <a:ext cx="1389530" cy="240703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>225459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>225459</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="115" name="グループ化 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A873586F-087D-48CA-95A1-82CAAE2145AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4769223" y="5075365"/>
+          <a:ext cx="466165" cy="555812"/>
+          <a:chOff x="2682240" y="685800"/>
+          <a:chExt cx="1127760" cy="466165"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="116" name="直線コネクタ 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560EE12C-6A82-421E-8B5D-21DC17026790}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2682240" y="914400"/>
+            <a:ext cx="1127760" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="117" name="直線コネクタ 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0796AC-A9A8-44A3-AB9A-882D75BA5B15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2870201" y="685800"/>
+            <a:ext cx="0" cy="466165"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="118" name="直線コネクタ 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD08B66-93B3-4960-A952-4D31D76C669F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3626218" y="685800"/>
+            <a:ext cx="0" cy="466165"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="119" name="グループ化 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0A3ACB-755E-4E42-BCE4-BBFDF7356021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4769224" y="6714565"/>
+          <a:ext cx="466164" cy="555812"/>
+          <a:chOff x="2682240" y="685800"/>
+          <a:chExt cx="1127760" cy="466165"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="120" name="直線コネクタ 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34599C5-6F5F-47E8-A169-BBF010FEAC87}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2682240" y="914400"/>
+            <a:ext cx="1127760" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="121" name="直線コネクタ 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4959058F-885D-41E9-B368-602A03F175A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2870201" y="685800"/>
+            <a:ext cx="0" cy="466165"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="122" name="直線コネクタ 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3646DA31-8CD3-4CD5-99DB-E2CC07DBDB22}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3626218" y="685800"/>
+            <a:ext cx="0" cy="466165"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277905</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>225461</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="正方形/長方形 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652E2114-8AD4-429A-9903-3345E5A688D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833718" y="932329"/>
+          <a:ext cx="1389528" cy="458544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・値</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277905</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="正方形/長方形 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16FFB8E-6967-4A8E-A2C3-68ACF6D9616F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833718" y="699247"/>
+          <a:ext cx="1389528" cy="233082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・種別</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1248,23 +4068,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:M2"/>
+  <dimension ref="D3:AZ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
+  <cols>
+    <col min="50" max="50" width="3.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:13">
-      <c r="C2" t="s">
+    <row r="3" spans="4:34">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:34">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" t="s">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Y11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:52">
+      <c r="AS17" s="1"/>
+    </row>
+    <row r="22" spans="4:52">
+      <c r="AZ22" s="1"/>
+    </row>
+    <row r="23" spans="4:52">
+      <c r="AZ23" s="1"/>
+    </row>
+    <row r="24" spans="4:52">
+      <c r="AZ24" s="1"/>
+    </row>
+    <row r="25" spans="4:52">
+      <c r="P25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ25" s="1"/>
+    </row>
+    <row r="26" spans="4:52">
+      <c r="AZ26" s="1"/>
+    </row>
+    <row r="27" spans="4:52">
+      <c r="AZ27" s="1"/>
+    </row>
+    <row r="28" spans="4:52">
+      <c r="AZ28" s="1"/>
+    </row>
+    <row r="29" spans="4:52">
+      <c r="AZ29" s="1"/>
+    </row>
+    <row r="30" spans="4:52">
+      <c r="AZ30" s="1"/>
+    </row>
+    <row r="32" spans="4:52">
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="P32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y32" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/E-R図.xlsx
+++ b/E-R図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tashi\source\repos\matching_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C3B1CB-9D07-4FE7-AE7D-E95CF9003BC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4317E9E5-29C4-41A2-8279-632A944E97C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
